--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,15 @@
     <t>returned</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
@@ -64,79 +70,88 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>husband</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>potatoes</t>
+    <t>bread</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>ever</t>
@@ -145,16 +160,16 @@
     <t>gift</t>
   </si>
   <si>
-    <t>popcorn</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>old</t>
   </si>
   <si>
     <t>easy</t>
@@ -163,55 +178,61 @@
     <t>day</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>exactly</t>
+    <t>well</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>well</t>
+    <t>works</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>bought</t>
@@ -220,31 +241,22 @@
     <t>make</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -608,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3798449612403101</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3434343434343434</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,21 +781,45 @@
         <v>0</v>
       </c>
       <c r="Q4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.172972972972973</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>153</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="J5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K5">
-        <v>0.8699690402476781</v>
+        <v>0.9140625</v>
       </c>
       <c r="L5">
-        <v>562</v>
+        <v>117</v>
       </c>
       <c r="M5">
-        <v>562</v>
+        <v>117</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,21 +831,21 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8478260869565217</v>
+        <v>0.871517027863777</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>563</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>563</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,21 +857,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8405797101449275</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,21 +883,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7555555555555555</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -873,21 +909,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7532467532467533</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L9">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -899,21 +935,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7288135593220338</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L10">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="M10">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -925,12 +961,12 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11">
         <v>0.7272727272727273</v>
@@ -956,16 +992,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7272727272727273</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -977,21 +1013,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.647887323943662</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1003,21 +1039,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6468699839486356</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L14">
-        <v>806</v>
+        <v>50</v>
       </c>
       <c r="M14">
-        <v>806</v>
+        <v>50</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1029,21 +1065,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>440</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6438356164383562</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1055,21 +1091,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.640625</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1081,21 +1117,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6285714285714286</v>
+        <v>0.6364365971107544</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>793</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>793</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1107,21 +1143,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>65</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.618421052631579</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1133,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6142857142857143</v>
+        <v>0.609375</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1159,21 +1195,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5882352941176471</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1185,47 +1221,47 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="L21">
+        <v>43</v>
+      </c>
+      <c r="M21">
+        <v>43</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>29</v>
-      </c>
-      <c r="K21">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L21">
-        <v>30</v>
-      </c>
-      <c r="M21">
-        <v>30</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5833333333333334</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L22">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1237,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5769230769230769</v>
+        <v>0.5885714285714285</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="M23">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1263,21 +1299,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5614035087719298</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1289,15 +1325,15 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5538461538461539</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L25">
         <v>36</v>
@@ -1315,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5538461538461539</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1341,21 +1377,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5421686746987951</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L27">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1367,21 +1403,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5396825396825397</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1393,47 +1429,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="L29">
+        <v>39</v>
+      </c>
+      <c r="M29">
+        <v>39</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>37</v>
-      </c>
-      <c r="K29">
-        <v>0.5308641975308642</v>
-      </c>
-      <c r="L29">
-        <v>43</v>
-      </c>
-      <c r="M29">
-        <v>43</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5269461077844312</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L30">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M30">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1445,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.51</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L31">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="M31">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1471,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.5042735042735043</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L32">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1497,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.4285714285714285</v>
+        <v>0.49</v>
       </c>
       <c r="L33">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M33">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1523,47 +1559,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L34">
+        <v>39</v>
+      </c>
+      <c r="M34">
+        <v>39</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>42</v>
-      </c>
-      <c r="K34">
-        <v>0.427710843373494</v>
-      </c>
-      <c r="L34">
-        <v>71</v>
-      </c>
-      <c r="M34">
-        <v>71</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>95</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.4210526315789473</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1575,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.4142156862745098</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L36">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1601,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>239</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.377431906614786</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L37">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="M37">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1627,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>160</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.3333333333333333</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1653,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.3328767123287671</v>
+        <v>0.3963963963963964</v>
       </c>
       <c r="L39">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="M39">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1679,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>487</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.3267326732673267</v>
+        <v>0.3929961089494163</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1705,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>68</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.3240740740740741</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1731,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>73</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.3007518796992481</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1757,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.2972972972972973</v>
+        <v>0.3383561643835616</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="M43">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1783,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>78</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.2949640287769784</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="L44">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1809,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.2870813397129187</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L45">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1835,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.2831001076426265</v>
+        <v>0.2822966507177033</v>
       </c>
       <c r="L46">
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="M46">
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1861,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>666</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.2649006622516556</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L47">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1887,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.2566371681415929</v>
+        <v>0.2648008611410119</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1913,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>84</v>
+        <v>683</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.2281879194630873</v>
+        <v>0.2516556291390729</v>
       </c>
       <c r="L49">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M49">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1939,47 +1975,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2227912932138284</v>
+        <v>0.2289002557544757</v>
       </c>
       <c r="L50">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M50">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N50">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.2163009404388715</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="L51">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="M51">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1991,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>250</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.2105960264900662</v>
+        <v>0.2211920529801324</v>
       </c>
       <c r="L52">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M52">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2017,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.201219512195122</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L53">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="M53">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2043,73 +2079,73 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>131</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K54">
-        <v>0.1810810810810811</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L54">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="M54">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N54">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>303</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1734317343173432</v>
+        <v>0.1837837837837838</v>
       </c>
       <c r="L55">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="M55">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>224</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K56">
-        <v>0.1599045346062052</v>
+        <v>0.1807909604519774</v>
       </c>
       <c r="L56">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="M56">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2121,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>352</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1513157894736842</v>
+        <v>0.1742243436754177</v>
       </c>
       <c r="L57">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M57">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2147,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>387</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1435523114355231</v>
+        <v>0.1600877192982456</v>
       </c>
       <c r="L58">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="M58">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2173,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>352</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K59">
-        <v>0.137037037037037</v>
+        <v>0.1477832512315271</v>
       </c>
       <c r="L59">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2199,21 +2235,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>233</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1363636363636364</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="L60">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M60">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2225,21 +2261,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K61">
-        <v>0.127147766323024</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="L61">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M61">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2251,21 +2287,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K62">
-        <v>0.1218487394957983</v>
+        <v>0.138655462184874</v>
       </c>
       <c r="L62">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M62">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2277,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K63">
-        <v>0.1209677419354839</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L63">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M63">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2303,73 +2339,73 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>218</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K64">
-        <v>0.09289617486338798</v>
+        <v>0.1317073170731707</v>
       </c>
       <c r="L64">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="M64">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K65">
-        <v>0.09167446211412535</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L65">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="M65">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="N65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>971</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K66">
-        <v>0.08166189111747851</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="L66">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M66">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2381,47 +2417,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>641</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K67">
-        <v>0.07307692307692308</v>
+        <v>0.09469153515064563</v>
       </c>
       <c r="L67">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="M67">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="N67">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O67">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>482</v>
+        <v>631</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K68">
-        <v>0.06088560885608856</v>
+        <v>0.08675373134328358</v>
       </c>
       <c r="L68">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="M68">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2433,33 +2469,111 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>509</v>
+        <v>979</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K69">
-        <v>0.05729166666666666</v>
+        <v>0.07888040712468193</v>
       </c>
       <c r="L69">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="M69">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="N69">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>1086</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K70">
+        <v>0.06851851851851852</v>
+      </c>
+      <c r="L70">
+        <v>37</v>
+      </c>
+      <c r="M70">
+        <v>39</v>
+      </c>
+      <c r="N70">
+        <v>0.95</v>
+      </c>
+      <c r="O70">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K71">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="L71">
+        <v>32</v>
+      </c>
+      <c r="M71">
+        <v>34</v>
+      </c>
+      <c r="N71">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O71">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K72">
+        <v>0.05632582322357019</v>
+      </c>
+      <c r="L72">
+        <v>65</v>
+      </c>
+      <c r="M72">
+        <v>68</v>
+      </c>
+      <c r="N72">
+        <v>0.96</v>
+      </c>
+      <c r="O72">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
